--- a/Tokenomics.xlsx
+++ b/Tokenomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Vechain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96122A1-4431-4833-889D-8CA97FD11290}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5243C99A-ACDE-4210-9E2A-2FB915611488}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXO Breakdown" sheetId="1" r:id="rId1"/>
@@ -64,33 +64,6 @@
   </si>
   <si>
     <t>Foundation Staking Node (FSN)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Minted and sent to the FSN wallet to be staked continually on the 90 day locked staking, tier 3 (7.5% APR). Staking Rewards will be distributed as extra rewards to stakers. See "EXO Staking" for more details. FSN funds will over time be returned to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>original</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> AD receivers. See "Foundation Staking Node Unlock Table" for more details.</t>
-    </r>
   </si>
   <si>
     <t>Metaverse Development (MD)</t>
@@ -397,6 +370,28 @@
   </si>
   <si>
     <t>$GCRED and NFTs eventually cross chain. ETH first, then onto other chains, possibly Solana &amp; Cardano. Take advantage of Weth and Wvet on opposite chains.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minted and sent to the FSN wallet to be staked continually on the 90 day locked staking, tier 3 (7.5% APR). Staking Rewards will be distributed as extra rewards to stakers. See "EXO Staking" for more details. FSN funds will over time be returned to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> AD receivers. See "Foundation Staking Node Unlock Table" for more details.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -971,88 +966,23 @@
     <xf numFmtId="166" fontId="3" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,10 +998,75 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1290,7 @@
   <dimension ref="A1:AE1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:F46"/>
+      <selection activeCell="C11" sqref="C11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1321,14 +1316,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1356,12 +1351,12 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1389,12 +1384,12 @@
       <c r="AE2" s="3"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
-      <c r="F3" s="84"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1426,12 +1421,12 @@
       <c r="AE3" s="3"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1463,18 +1458,18 @@
       <c r="AE4" s="3"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="3"/>
@@ -1502,12 +1497,12 @@
       <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="84"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="3"/>
@@ -1535,12 +1530,12 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
@@ -1568,18 +1563,18 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -1607,12 +1602,12 @@
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="84"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -1640,12 +1635,12 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -1673,18 +1668,18 @@
       <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1712,12 +1707,12 @@
       <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="84"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -1745,12 +1740,12 @@
       <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
-      <c r="F13" s="85"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -1778,18 +1773,18 @@
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="109" t="s">
-        <v>13</v>
+      <c r="C14" s="94" t="s">
+        <v>115</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -1817,12 +1812,12 @@
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -1850,12 +1845,12 @@
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -1883,18 +1878,18 @@
       <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="C17" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -1922,12 +1917,12 @@
       <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="84"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
@@ -1955,12 +1950,12 @@
       <c r="AE18" s="3"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
@@ -1988,18 +1983,18 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
@@ -2027,12 +2022,12 @@
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
-      <c r="F21" s="84"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -2060,12 +2055,12 @@
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="85"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -2093,18 +2088,18 @@
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="C23" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -2132,12 +2127,12 @@
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
-      <c r="F24" s="84"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -2165,12 +2160,12 @@
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="85"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -2198,18 +2193,18 @@
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="C26" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="110"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
@@ -2237,12 +2232,12 @@
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -2270,12 +2265,12 @@
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="78"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -2303,18 +2298,18 @@
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="C29" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -2342,12 +2337,12 @@
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="77"/>
-      <c r="F30" s="84"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -2375,12 +2370,12 @@
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
       <c r="E31" s="78"/>
-      <c r="F31" s="85"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2397,7 +2392,7 @@
         <v>0.1</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -2412,18 +2407,18 @@
       <c r="AE31" s="3"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="C32" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2440,7 +2435,7 @@
         <v>0.22</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -2455,12 +2450,12 @@
       <c r="AE32" s="3"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="84"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2488,12 +2483,12 @@
       <c r="AE33" s="3"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="78"/>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
       <c r="E34" s="78"/>
-      <c r="F34" s="85"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2521,18 +2516,18 @@
       <c r="AE34" s="3"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="C35" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2560,12 +2555,12 @@
       <c r="AE35" s="3"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
-      <c r="F36" s="84"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2593,12 +2588,12 @@
       <c r="AE36" s="3"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="78"/>
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="85"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2626,18 +2621,18 @@
       <c r="AE37" s="3"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="C38" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2665,12 +2660,12 @@
       <c r="AE38" s="3"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
-      <c r="F39" s="84"/>
+      <c r="F39" s="82"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2698,12 +2693,12 @@
       <c r="AE39" s="3"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
       <c r="E40" s="78"/>
-      <c r="F40" s="85"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2734,23 +2729,23 @@
       <c r="AE40" s="3"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="C41" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="D41" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="91" t="s">
+      <c r="E41" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="F41" s="79" t="s">
         <v>43</v>
-      </c>
-      <c r="F41" s="76" t="s">
-        <v>44</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2779,7 +2774,7 @@
       <c r="AE41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
@@ -2812,7 +2807,7 @@
       <c r="AE42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="78"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
@@ -2845,18 +2840,18 @@
       <c r="AE43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="C44" s="100" t="s">
         <v>46</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>47</v>
       </c>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
-      <c r="F44" s="84"/>
+      <c r="F44" s="82"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2884,12 +2879,12 @@
       <c r="AE44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="77"/>
       <c r="C45" s="77"/>
       <c r="D45" s="77"/>
       <c r="E45" s="77"/>
-      <c r="F45" s="84"/>
+      <c r="F45" s="82"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2917,12 +2912,12 @@
       <c r="AE45" s="3"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="78"/>
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
       <c r="E46" s="78"/>
-      <c r="F46" s="85"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3019,7 +3014,7 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -35194,6 +35189,43 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:F46"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:F10"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:F13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:F28"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:F37"/>
     <mergeCell ref="A29:A31"/>
@@ -35203,43 +35235,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:F34"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:F28"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:F13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:F10"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35252,8 +35247,8 @@
   </sheetPr>
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35262,14 +35257,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>49</v>
+      <c r="A1" s="95" t="s">
+        <v>48</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -35292,12 +35287,12 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -35320,12 +35315,12 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
-      <c r="F3" s="84"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -35348,12 +35343,12 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -35376,18 +35371,18 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="95" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
@@ -35410,12 +35405,12 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="84"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
@@ -35438,12 +35433,12 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -35466,18 +35461,18 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="95" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -35500,12 +35495,12 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="84"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -35528,12 +35523,12 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -35556,18 +35551,18 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -35590,12 +35585,12 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="84"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -35618,12 +35613,12 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
-      <c r="F13" s="85"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -35646,18 +35641,18 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="95" t="s">
-        <v>59</v>
+      <c r="D14" s="80"/>
+      <c r="E14" s="92" t="s">
+        <v>56</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -35680,12 +35675,12 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -35708,12 +35703,12 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -35736,18 +35731,18 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -35770,12 +35765,12 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="84"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -35798,12 +35793,12 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -35826,18 +35821,18 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -35860,12 +35855,12 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
-      <c r="F21" s="84"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -35888,12 +35883,12 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="85"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -35916,18 +35911,18 @@
       <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="91" t="s">
+      <c r="A23" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="89"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="81"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -35950,12 +35945,12 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
-      <c r="F24" s="84"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -35978,12 +35973,12 @@
       <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="85"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -36006,18 +36001,18 @@
       <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
-        <v>65</v>
+      <c r="A26" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="95" t="s">
-        <v>54</v>
+      <c r="B26" s="80"/>
+      <c r="C26" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="91" t="s">
-        <v>63</v>
+      <c r="D26" s="102"/>
+      <c r="E26" s="92" t="s">
+        <v>62</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -36040,12 +36035,12 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="84"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -36068,12 +36063,12 @@
       <c r="Z27" s="17"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="78"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="78"/>
-      <c r="F28" s="85"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -36096,8 +36091,8 @@
       <c r="Z28" s="17"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="96" t="s">
-        <v>66</v>
+      <c r="A29" s="101" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -39263,6 +39258,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:F10"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="E11:F13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="A17:B19"/>
     <mergeCell ref="A29:F31"/>
     <mergeCell ref="C26:D28"/>
     <mergeCell ref="E26:F28"/>
@@ -39273,24 +39284,9 @@
     <mergeCell ref="C23:D25"/>
     <mergeCell ref="E23:F25"/>
     <mergeCell ref="A26:B28"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="E11:F13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39302,7 +39298,7 @@
   <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39313,12 +39309,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>67</v>
+      <c r="A1" s="95" t="s">
+        <v>66</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="17"/>
@@ -39343,7 +39339,7 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -39371,7 +39367,7 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -39399,7 +39395,7 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -39427,14 +39423,14 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>50</v>
+      <c r="A5" s="84" t="s">
+        <v>49</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="91" t="s">
-        <v>68</v>
+      <c r="B5" s="80"/>
+      <c r="C5" s="92" t="s">
+        <v>67</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -39459,10 +39455,10 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
-      <c r="D6" s="84"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -39487,10 +39483,10 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
-      <c r="D7" s="85"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
@@ -39515,14 +39511,14 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
@@ -39547,10 +39543,10 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
-      <c r="D9" s="84"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -39575,10 +39571,10 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="85"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -39603,14 +39599,14 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>56</v>
+      <c r="A11" s="93" t="s">
+        <v>55</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="91" t="s">
-        <v>54</v>
+      <c r="B11" s="80"/>
+      <c r="C11" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -39635,10 +39631,10 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
-      <c r="D12" s="84"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -39663,10 +39659,10 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
-      <c r="D13" s="85"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -39691,14 +39687,14 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -39723,10 +39719,10 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="84"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -39751,10 +39747,10 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -39779,14 +39775,14 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
-        <v>60</v>
+      <c r="A17" s="93" t="s">
+        <v>59</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="91" t="s">
-        <v>54</v>
+      <c r="B17" s="80"/>
+      <c r="C17" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -39811,10 +39807,10 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
-      <c r="D18" s="84"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -39839,10 +39835,10 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -39867,14 +39863,14 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
-        <v>62</v>
+      <c r="A20" s="93" t="s">
+        <v>61</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="91" t="s">
-        <v>54</v>
+      <c r="B20" s="80"/>
+      <c r="C20" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -39899,10 +39895,10 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
-      <c r="D21" s="84"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -39927,10 +39923,10 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -39955,14 +39951,14 @@
       <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
-        <v>64</v>
+      <c r="A23" s="93" t="s">
+        <v>63</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="91" t="s">
-        <v>54</v>
+      <c r="B23" s="80"/>
+      <c r="C23" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -39987,10 +39983,10 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
-      <c r="D24" s="84"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -40015,10 +40011,10 @@
       <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
-      <c r="D25" s="85"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -40043,14 +40039,14 @@
       <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
-        <v>65</v>
+      <c r="A26" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="91" t="s">
-        <v>54</v>
+      <c r="B26" s="80"/>
+      <c r="C26" s="92" t="s">
+        <v>53</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -40075,10 +40071,10 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
-      <c r="D27" s="84"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -40103,10 +40099,10 @@
       <c r="Z27" s="17"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
-      <c r="D28" s="85"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -43716,6 +43712,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="C11:D13"/>
     <mergeCell ref="A23:B25"/>
@@ -43728,11 +43729,6 @@
     <mergeCell ref="C20:D22"/>
     <mergeCell ref="C23:D25"/>
     <mergeCell ref="C26:D28"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43745,21 +43741,21 @@
   </sheetPr>
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>69</v>
+      <c r="A1" s="95" t="s">
+        <v>68</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -43782,12 +43778,12 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -43810,12 +43806,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
-      <c r="F3" s="84"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -43838,12 +43834,12 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -43866,18 +43862,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>50</v>
+      <c r="A5" s="84" t="s">
+        <v>49</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -43899,13 +43895,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="84"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -43928,12 +43924,12 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -43955,19 +43951,19 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="95" t="s">
-        <v>54</v>
+      <c r="D8" s="80"/>
+      <c r="E8" s="92" t="s">
+        <v>71</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -43989,13 +43985,13 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="84"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -44017,13 +44013,13 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="86"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -44045,19 +44041,19 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>56</v>
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="93" t="s">
+        <v>55</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="95" t="s">
-        <v>59</v>
+      <c r="B11" s="80"/>
+      <c r="C11" s="102" t="s">
+        <v>58</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="91" t="s">
-        <v>73</v>
+      <c r="D11" s="80"/>
+      <c r="E11" s="92" t="s">
+        <v>72</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -44079,13 +44075,13 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="84"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -44107,13 +44103,13 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="86"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
-      <c r="F13" s="85"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -44135,19 +44131,19 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>58</v>
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="93" t="s">
+        <v>57</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="95" t="s">
-        <v>54</v>
+      <c r="B14" s="80"/>
+      <c r="C14" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="91" t="s">
-        <v>74</v>
+      <c r="D14" s="80"/>
+      <c r="E14" s="92" t="s">
+        <v>73</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -44169,13 +44165,13 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="85"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -44197,13 +44193,13 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="86"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -44225,19 +44221,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
-        <v>60</v>
+    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="93" t="s">
+        <v>59</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="95" t="s">
-        <v>54</v>
+      <c r="B17" s="80"/>
+      <c r="C17" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="91" t="s">
-        <v>74</v>
+      <c r="D17" s="80"/>
+      <c r="E17" s="92" t="s">
+        <v>73</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -44259,13 +44255,13 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="85"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="84"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -44287,13 +44283,13 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
+    <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -44315,19 +44311,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
-        <v>62</v>
+    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="93" t="s">
+        <v>61</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="95" t="s">
-        <v>54</v>
+      <c r="B20" s="80"/>
+      <c r="C20" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="91" t="s">
-        <v>74</v>
+      <c r="D20" s="80"/>
+      <c r="E20" s="92" t="s">
+        <v>73</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -44349,13 +44345,13 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="85"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
-      <c r="F21" s="84"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -44377,13 +44373,13 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+    <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="86"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="85"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -44405,19 +44401,19 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
-        <v>64</v>
+    <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="93" t="s">
+        <v>63</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="95" t="s">
-        <v>54</v>
+      <c r="B23" s="80"/>
+      <c r="C23" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="91" t="s">
-        <v>74</v>
+      <c r="D23" s="80"/>
+      <c r="E23" s="92" t="s">
+        <v>73</v>
       </c>
-      <c r="F23" s="89"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -44439,13 +44435,13 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
-      <c r="F24" s="84"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -44467,13 +44463,13 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="86"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="85"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -44495,19 +44491,19 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
-        <v>65</v>
+    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="95" t="s">
-        <v>54</v>
+      <c r="B26" s="80"/>
+      <c r="C26" s="102" t="s">
+        <v>53</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="91" t="s">
-        <v>74</v>
+      <c r="D26" s="80"/>
+      <c r="E26" s="92" t="s">
+        <v>73</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -44529,13 +44525,13 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="85"/>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="84"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -44557,13 +44553,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="86"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
-      <c r="F28" s="85"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -44585,9 +44581,9 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="96" t="s">
-        <v>75</v>
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="101" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -44615,7 +44611,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="77"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -44643,7 +44639,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="77"/>
       <c r="B31" s="77"/>
       <c r="C31" s="77"/>
@@ -44671,7 +44667,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -44699,7 +44695,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -44727,7 +44723,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -44755,7 +44751,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -44783,7 +44779,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -44811,7 +44807,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -44839,7 +44835,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -44867,7 +44863,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -44895,7 +44891,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -44923,7 +44919,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -44951,7 +44947,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -44979,7 +44975,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -45007,7 +45003,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -45035,7 +45031,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -45063,7 +45059,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -45091,7 +45087,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -45119,7 +45115,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -45147,7 +45143,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -45175,7 +45171,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -45203,7 +45199,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -45231,7 +45227,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -45259,7 +45255,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -45287,7 +45283,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -45315,7 +45311,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -45343,7 +45339,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -45371,7 +45367,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -45399,7 +45395,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -45427,7 +45423,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -45455,7 +45451,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -45483,7 +45479,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -45511,7 +45507,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -45539,7 +45535,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -45567,7 +45563,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -45595,7 +45591,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -45623,7 +45619,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -45651,7 +45647,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -45679,7 +45675,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -45707,7 +45703,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -45735,7 +45731,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -45763,7 +45759,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -45791,7 +45787,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -45819,7 +45815,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -45847,7 +45843,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -45875,7 +45871,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -45903,7 +45899,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -45931,7 +45927,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -45959,7 +45955,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -45987,7 +45983,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -46015,7 +46011,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -46043,7 +46039,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -46071,7 +46067,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -46099,7 +46095,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -46127,7 +46123,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -46155,7 +46151,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -46183,7 +46179,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -46211,7 +46207,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -46239,7 +46235,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -46267,7 +46263,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -46295,7 +46291,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -46323,7 +46319,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -46351,7 +46347,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -46379,7 +46375,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -46407,7 +46403,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -46435,7 +46431,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -46463,7 +46459,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -46491,7 +46487,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -46519,7 +46515,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -46547,7 +46543,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -46575,7 +46571,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -46603,7 +46599,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -46631,7 +46627,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -46659,7 +46655,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -46687,7 +46683,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -46715,7 +46711,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -46743,7 +46739,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -46771,7 +46767,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -46799,7 +46795,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -46827,7 +46823,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -46855,7 +46851,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -46883,7 +46879,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -46911,7 +46907,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -46939,7 +46935,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -46967,7 +46963,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -46995,7 +46991,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -47023,7 +47019,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -47051,7 +47047,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -47079,7 +47075,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -47107,7 +47103,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -47135,7 +47131,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -47163,7 +47159,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -47191,7 +47187,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -47219,7 +47215,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -47247,7 +47243,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -47275,7 +47271,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -47303,7 +47299,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -47331,7 +47327,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -47359,7 +47355,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -47387,7 +47383,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -47415,7 +47411,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -47443,7 +47439,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -47473,6 +47469,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:F10"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="E11:F13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="E14:F16"/>
+    <mergeCell ref="A17:B19"/>
     <mergeCell ref="A29:F31"/>
     <mergeCell ref="C26:D28"/>
     <mergeCell ref="E26:F28"/>
@@ -47483,22 +47495,6 @@
     <mergeCell ref="C23:D25"/>
     <mergeCell ref="E23:F25"/>
     <mergeCell ref="A26:B28"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="E11:F13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="E14:F16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47511,8 +47507,8 @@
   </sheetPr>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47520,26 +47516,26 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>76</v>
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>75</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="81"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
@@ -47550,8 +47546,8 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -47567,7 +47563,7 @@
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
-      <c r="Q2" s="84"/>
+      <c r="Q2" s="82"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -47578,32 +47574,32 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="105" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="103" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="99"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -47614,55 +47610,55 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>84</v>
+      <c r="F4" s="23" t="s">
+        <v>80</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>84</v>
+      <c r="J4" s="26" t="s">
+        <v>80</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="M4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>84</v>
+      <c r="N4" s="29" t="s">
+        <v>80</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="Q4" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -47674,34 +47670,34 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="114">
         <v>0</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="107">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="115">
         <v>2000000</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="97">
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="111">
         <v>4000000</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="100">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="112">
         <v>8000000</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="107"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -47714,7 +47710,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="33">
         <v>0.05</v>
@@ -47776,7 +47772,7 @@
     </row>
     <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="33">
         <v>0</v>
@@ -47838,7 +47834,7 @@
     </row>
     <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="45">
         <v>0</v>
@@ -47900,7 +47896,7 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="57">
         <v>0</v>
@@ -47960,7 +47956,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -47988,7 +47984,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -48016,26 +48012,26 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
-        <v>90</v>
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="95" t="s">
+        <v>89</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -48046,8 +48042,8 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
       <c r="B13" s="77"/>
       <c r="C13" s="77"/>
       <c r="D13" s="77"/>
@@ -48063,7 +48059,7 @@
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
       <c r="P13" s="77"/>
-      <c r="Q13" s="84"/>
+      <c r="Q13" s="82"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
@@ -48074,32 +48070,32 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="101" t="s">
-        <v>81</v>
+      <c r="B14" s="105" t="s">
+        <v>80</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="102" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="103" t="s">
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -48110,55 +48106,55 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>80</v>
+      <c r="F15" s="69" t="s">
+        <v>76</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="G15" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="H15" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="I15" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="69" t="s">
-        <v>80</v>
+      <c r="J15" s="26" t="s">
+        <v>76</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="K15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="L15" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="26" t="s">
-        <v>80</v>
+      <c r="N15" s="29" t="s">
+        <v>76</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="O15" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="29" t="s">
+      <c r="P15" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="Q15" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
@@ -48170,9 +48166,9 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="45">
         <v>0</v>
@@ -48234,7 +48230,7 @@
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="33">
         <v>0.05</v>
@@ -48296,7 +48292,7 @@
     </row>
     <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="33">
         <v>0</v>
@@ -48358,7 +48354,7 @@
     </row>
     <row r="19" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="45">
         <v>0</v>
@@ -48420,7 +48416,7 @@
     </row>
     <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="72">
         <v>0</v>
@@ -48480,7 +48476,7 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -48508,7 +48504,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -48536,7 +48532,7 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -48564,7 +48560,7 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -48592,7 +48588,7 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -48620,7 +48616,7 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -48648,7 +48644,7 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -48676,7 +48672,7 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -48704,7 +48700,7 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -48732,7 +48728,7 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -48760,7 +48756,7 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -48788,7 +48784,7 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -48816,7 +48812,7 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -48844,7 +48840,7 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -48872,7 +48868,7 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -48900,7 +48896,7 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -48928,7 +48924,7 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -48956,7 +48952,7 @@
       <c r="Y37" s="17"/>
       <c r="Z37" s="17"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -48984,7 +48980,7 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -49012,7 +49008,7 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -49040,7 +49036,7 @@
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -49068,7 +49064,7 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -49096,7 +49092,7 @@
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -49124,7 +49120,7 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -49152,7 +49148,7 @@
       <c r="Y44" s="17"/>
       <c r="Z44" s="17"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -49180,7 +49176,7 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -49208,7 +49204,7 @@
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -49236,7 +49232,7 @@
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -49264,7 +49260,7 @@
       <c r="Y48" s="17"/>
       <c r="Z48" s="17"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -49292,7 +49288,7 @@
       <c r="Y49" s="17"/>
       <c r="Z49" s="17"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -49320,7 +49316,7 @@
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -49348,7 +49344,7 @@
       <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -49376,7 +49372,7 @@
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -49404,7 +49400,7 @@
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -49432,7 +49428,7 @@
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -49460,7 +49456,7 @@
       <c r="Y55" s="17"/>
       <c r="Z55" s="17"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -49488,7 +49484,7 @@
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -49516,7 +49512,7 @@
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -49544,7 +49540,7 @@
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -49572,7 +49568,7 @@
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -49600,7 +49596,7 @@
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -49628,7 +49624,7 @@
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -49656,7 +49652,7 @@
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -49684,7 +49680,7 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -49712,7 +49708,7 @@
       <c r="Y64" s="17"/>
       <c r="Z64" s="17"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -49740,7 +49736,7 @@
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -49768,7 +49764,7 @@
       <c r="Y66" s="17"/>
       <c r="Z66" s="17"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -49796,7 +49792,7 @@
       <c r="Y67" s="17"/>
       <c r="Z67" s="17"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -49824,7 +49820,7 @@
       <c r="Y68" s="17"/>
       <c r="Z68" s="17"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -49852,7 +49848,7 @@
       <c r="Y69" s="17"/>
       <c r="Z69" s="17"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -49880,7 +49876,7 @@
       <c r="Y70" s="17"/>
       <c r="Z70" s="17"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -49908,7 +49904,7 @@
       <c r="Y71" s="17"/>
       <c r="Z71" s="17"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -49936,7 +49932,7 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -49964,7 +49960,7 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -49992,7 +49988,7 @@
       <c r="Y74" s="17"/>
       <c r="Z74" s="17"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -50020,7 +50016,7 @@
       <c r="Y75" s="17"/>
       <c r="Z75" s="17"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -50048,7 +50044,7 @@
       <c r="Y76" s="17"/>
       <c r="Z76" s="17"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -50076,7 +50072,7 @@
       <c r="Y77" s="17"/>
       <c r="Z77" s="17"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -50104,7 +50100,7 @@
       <c r="Y78" s="17"/>
       <c r="Z78" s="17"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -50132,7 +50128,7 @@
       <c r="Y79" s="17"/>
       <c r="Z79" s="17"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -50160,7 +50156,7 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="17"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -50188,7 +50184,7 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="17"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -50216,7 +50212,7 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="17"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -50244,7 +50240,7 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -50272,7 +50268,7 @@
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -50300,7 +50296,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -50328,7 +50324,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -50356,7 +50352,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -50384,7 +50380,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -50412,7 +50408,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -50440,7 +50436,7 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -50468,7 +50464,7 @@
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -50496,7 +50492,7 @@
       <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -50524,7 +50520,7 @@
       <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -50552,7 +50548,7 @@
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -50580,7 +50576,7 @@
       <c r="Y95" s="17"/>
       <c r="Z95" s="17"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -50608,7 +50604,7 @@
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -50636,7 +50632,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -50664,7 +50660,7 @@
       <c r="Y98" s="17"/>
       <c r="Z98" s="17"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -50692,7 +50688,7 @@
       <c r="Y99" s="17"/>
       <c r="Z99" s="17"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -50720,7 +50716,7 @@
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -50748,7 +50744,7 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -50776,7 +50772,7 @@
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -50804,7 +50800,7 @@
       <c r="Y103" s="17"/>
       <c r="Z103" s="17"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -50832,7 +50828,7 @@
       <c r="Y104" s="17"/>
       <c r="Z104" s="17"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -50860,7 +50856,7 @@
       <c r="Y105" s="17"/>
       <c r="Z105" s="17"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -50888,7 +50884,7 @@
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -50916,7 +50912,7 @@
       <c r="Y107" s="17"/>
       <c r="Z107" s="17"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -50944,7 +50940,7 @@
       <c r="Y108" s="17"/>
       <c r="Z108" s="17"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -50972,7 +50968,7 @@
       <c r="Y109" s="17"/>
       <c r="Z109" s="17"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -51000,7 +50996,7 @@
       <c r="Y110" s="17"/>
       <c r="Z110" s="17"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -51028,7 +51024,7 @@
       <c r="Y111" s="17"/>
       <c r="Z111" s="17"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -51056,7 +51052,7 @@
       <c r="Y112" s="17"/>
       <c r="Z112" s="17"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -51084,7 +51080,7 @@
       <c r="Y113" s="17"/>
       <c r="Z113" s="17"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -51112,7 +51108,7 @@
       <c r="Y114" s="17"/>
       <c r="Z114" s="17"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -51140,7 +51136,7 @@
       <c r="Y115" s="17"/>
       <c r="Z115" s="17"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -51168,7 +51164,7 @@
       <c r="Y116" s="17"/>
       <c r="Z116" s="17"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -51196,7 +51192,7 @@
       <c r="Y117" s="17"/>
       <c r="Z117" s="17"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -51224,7 +51220,7 @@
       <c r="Y118" s="17"/>
       <c r="Z118" s="17"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -51252,7 +51248,7 @@
       <c r="Y119" s="17"/>
       <c r="Z119" s="17"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -51280,7 +51276,7 @@
       <c r="Y120" s="17"/>
       <c r="Z120" s="17"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -51308,7 +51304,7 @@
       <c r="Y121" s="17"/>
       <c r="Z121" s="17"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -51336,7 +51332,7 @@
       <c r="Y122" s="17"/>
       <c r="Z122" s="17"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -51364,7 +51360,7 @@
       <c r="Y123" s="17"/>
       <c r="Z123" s="17"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -51392,7 +51388,7 @@
       <c r="Y124" s="17"/>
       <c r="Z124" s="17"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -51420,7 +51416,7 @@
       <c r="Y125" s="17"/>
       <c r="Z125" s="17"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -51448,7 +51444,7 @@
       <c r="Y126" s="17"/>
       <c r="Z126" s="17"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -51476,7 +51472,7 @@
       <c r="Y127" s="17"/>
       <c r="Z127" s="17"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -51504,7 +51500,7 @@
       <c r="Y128" s="17"/>
       <c r="Z128" s="17"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -51532,7 +51528,7 @@
       <c r="Y129" s="17"/>
       <c r="Z129" s="17"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -51560,7 +51556,7 @@
       <c r="Y130" s="17"/>
       <c r="Z130" s="17"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -51588,7 +51584,7 @@
       <c r="Y131" s="17"/>
       <c r="Z131" s="17"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -51616,7 +51612,7 @@
       <c r="Y132" s="17"/>
       <c r="Z132" s="17"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -51644,7 +51640,7 @@
       <c r="Y133" s="17"/>
       <c r="Z133" s="17"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -51672,7 +51668,7 @@
       <c r="Y134" s="17"/>
       <c r="Z134" s="17"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -51700,7 +51696,7 @@
       <c r="Y135" s="17"/>
       <c r="Z135" s="17"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -51728,7 +51724,7 @@
       <c r="Y136" s="17"/>
       <c r="Z136" s="17"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -51756,7 +51752,7 @@
       <c r="Y137" s="17"/>
       <c r="Z137" s="17"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -51784,7 +51780,7 @@
       <c r="Y138" s="17"/>
       <c r="Z138" s="17"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -51814,11 +51810,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="A12:Q13"/>
@@ -51828,6 +51819,11 @@
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51840,7 +51836,9 @@
   </sheetPr>
   <dimension ref="A1:Z145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -51850,14 +51848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
@@ -51880,12 +51878,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -51908,12 +51906,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
-      <c r="F3" s="84"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -51936,12 +51934,12 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -51964,18 +51962,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -51998,12 +51996,12 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="84"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -52026,12 +52024,12 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -52054,18 +52052,18 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="C8" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -52088,12 +52086,12 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="84"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -52116,12 +52114,12 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -52144,18 +52142,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>97</v>
+      <c r="B11" s="97" t="s">
+        <v>96</v>
       </c>
-      <c r="C11" s="91" t="s">
-        <v>99</v>
+      <c r="C11" s="92" t="s">
+        <v>98</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -52178,12 +52176,12 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="84"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -52206,12 +52204,12 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
-      <c r="F13" s="85"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -52234,18 +52232,18 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>97</v>
+      <c r="B14" s="97" t="s">
+        <v>96</v>
       </c>
-      <c r="C14" s="91" t="s">
-        <v>100</v>
+      <c r="C14" s="92" t="s">
+        <v>99</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -52268,12 +52266,12 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -52296,12 +52294,12 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -52324,18 +52322,18 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>14</v>
+      <c r="A17" s="84" t="s">
+        <v>13</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -52358,12 +52356,12 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="77"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
-      <c r="F18" s="84"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
@@ -52386,12 +52384,12 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
@@ -52414,18 +52412,18 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
-        <v>17</v>
+      <c r="A20" s="84" t="s">
+        <v>16</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>97</v>
+      <c r="B20" s="97" t="s">
+        <v>96</v>
       </c>
-      <c r="C20" s="91" t="s">
-        <v>103</v>
+      <c r="C20" s="92" t="s">
+        <v>102</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -52448,12 +52446,12 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
-      <c r="F21" s="84"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -52476,12 +52474,12 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="85"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -52504,18 +52502,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="86" t="s">
-        <v>19</v>
+      <c r="A23" s="84" t="s">
+        <v>18</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -52538,12 +52536,12 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="77"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
-      <c r="F24" s="84"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -52566,12 +52564,12 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
-      <c r="F25" s="85"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -52594,18 +52592,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
-        <v>22</v>
+      <c r="A26" s="84" t="s">
+        <v>21</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -52628,12 +52626,12 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="84"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -52656,12 +52654,12 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="78"/>
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
-      <c r="F28" s="84"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -52684,16 +52682,16 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
-        <v>25</v>
+      <c r="A29" s="84" t="s">
+        <v>24</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>106</v>
+      <c r="B29" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
-      <c r="F29" s="84"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -52716,12 +52714,12 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
       <c r="D30" s="77"/>
       <c r="E30" s="77"/>
-      <c r="F30" s="84"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -52744,12 +52742,12 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
       <c r="E31" s="78"/>
-      <c r="F31" s="85"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -52772,18 +52770,18 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="86" t="s">
-        <v>29</v>
+      <c r="A32" s="84" t="s">
+        <v>28</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -52806,12 +52804,12 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
-      <c r="F33" s="84"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -52834,12 +52832,12 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="78"/>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
       <c r="E34" s="78"/>
-      <c r="F34" s="85"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -52862,18 +52860,18 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
-        <v>33</v>
+      <c r="A35" s="84" t="s">
+        <v>32</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -52896,12 +52894,12 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
-      <c r="F36" s="84"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -52924,12 +52922,12 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="78"/>
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="85"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -52952,18 +52950,18 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="86" t="s">
-        <v>36</v>
+      <c r="A38" s="84" t="s">
+        <v>35</v>
       </c>
-      <c r="B38" s="90" t="s">
-        <v>112</v>
+      <c r="B38" s="97" t="s">
+        <v>111</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>38</v>
+      <c r="C38" s="79" t="s">
+        <v>37</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -52986,12 +52984,12 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
-      <c r="F39" s="84"/>
+      <c r="F39" s="82"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -53014,12 +53012,12 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
       <c r="E40" s="78"/>
-      <c r="F40" s="85"/>
+      <c r="F40" s="83"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -53042,18 +53040,18 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="86" t="s">
-        <v>39</v>
+      <c r="A41" s="84" t="s">
+        <v>38</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -53076,7 +53074,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
@@ -53104,7 +53102,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="78"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
@@ -53132,18 +53130,18 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="108" t="s">
-        <v>115</v>
+      <c r="C44" s="116" t="s">
+        <v>114</v>
       </c>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
-      <c r="F44" s="84"/>
+      <c r="F44" s="82"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -53166,12 +53164,12 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="77"/>
       <c r="C45" s="77"/>
       <c r="D45" s="77"/>
       <c r="E45" s="77"/>
-      <c r="F45" s="84"/>
+      <c r="F45" s="82"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -53194,12 +53192,12 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="78"/>
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
       <c r="E46" s="78"/>
-      <c r="F46" s="85"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -55995,11 +55993,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:F10"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:F13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="C26:F31"/>
+    <mergeCell ref="C32:F34"/>
+    <mergeCell ref="C35:F37"/>
+    <mergeCell ref="C38:F40"/>
     <mergeCell ref="C41:F43"/>
     <mergeCell ref="C44:F46"/>
     <mergeCell ref="A20:A22"/>
@@ -56016,27 +56030,11 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="C26:F31"/>
-    <mergeCell ref="C32:F34"/>
-    <mergeCell ref="C35:F37"/>
-    <mergeCell ref="C38:F40"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:F13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:F10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
